--- a/data/extracted_data/raw_round2/data/Wu_etal_2024_Fig1.xlsx
+++ b/data/extracted_data/raw_round2/data/Wu_etal_2024_Fig1.xlsx
@@ -1,42 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D36EBEB-A3C6-534D-9431-6D8F6C592AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C4E824-8099-C04C-9DFA-3E9CC93D9A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16140" xr2:uid="{9481A4B3-A066-F940-90DE-9FC62F2AD50C}"/>
+    <workbookView xWindow="22760" yWindow="4200" windowWidth="27640" windowHeight="16140" xr2:uid="{9481A4B3-A066-F940-90DE-9FC62F2AD50C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="14">
   <si>
     <t>day</t>
   </si>
@@ -66,13 +59,25 @@
   </si>
   <si>
     <t>Depuration</t>
+  </si>
+  <si>
+    <t>Sum of toxicity</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,8 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +128,261 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chris Free" refreshedDate="45972.47594571759" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24" xr:uid="{515DB478-FFA7-DF4A-B2AB-B4DBAF07A6A5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D25" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="treatment" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="phase" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Uptake"/>
+        <s v="Depuration"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="21" count="6">
+        <n v="1"/>
+        <n v="3"/>
+        <n v="7"/>
+        <n v="9"/>
+        <n v="14"/>
+        <n v="21"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="toxicity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="365.32559313477998"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
+  <r>
+    <s v="AZA23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="AZA23"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="AZA23"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.7739892839746698"/>
+  </r>
+  <r>
+    <s v="AZA23"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="5.13090599123234"/>
+  </r>
+  <r>
+    <s v="AZA23"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="4.1195811008280501"/>
+  </r>
+  <r>
+    <s v="AZA23"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2.1316366293229398"/>
+  </r>
+  <r>
+    <s v="AZA11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="AZA11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="AZA11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.7262542620555199"/>
+  </r>
+  <r>
+    <s v="AZA11"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="6.0831709693132003"/>
+  </r>
+  <r>
+    <s v="AZA11"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="4.8331709693132003"/>
+  </r>
+  <r>
+    <s v="AZA11"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2.1316366293229398"/>
+  </r>
+  <r>
+    <s v="AZA2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="AZA2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="19.136799596163598"/>
+  </r>
+  <r>
+    <s v="AZA2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="184.13427561837401"/>
+  </r>
+  <r>
+    <s v="AZA2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="365.32559313477998"/>
+  </r>
+  <r>
+    <s v="AZA2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="257.76375567895002"/>
+  </r>
+  <r>
+    <s v="AZA2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="141.90307925290199"/>
+  </r>
+  <r>
+    <s v="AZA19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="AZA19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="AZA19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="93.351842503785903"/>
+  </r>
+  <r>
+    <s v="AZA19"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="100.85310449268"/>
+  </r>
+  <r>
+    <s v="AZA19"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="68.293791014639098"/>
+  </r>
+  <r>
+    <s v="AZA19"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="39.268046441191302"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28C1EC94-C124-5B4A-AF20-398C8571733D}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of toxicity" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,15 +702,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92241B81-93BB-244E-93B0-197F5B565AE2}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -459,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -473,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -487,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -501,7 +766,7 @@
         <v>2.7739892839746698</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -515,7 +780,7 @@
         <v>5.13090599123234</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -529,7 +794,7 @@
         <v>4.1195811008280501</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -543,7 +808,7 @@
         <v>2.1316366293229398</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -557,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -571,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -585,7 +850,7 @@
         <v>3.7262542620555199</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -599,7 +864,7 @@
         <v>6.0831709693132003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -613,7 +878,7 @@
         <v>4.8331709693132003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -627,7 +892,7 @@
         <v>2.1316366293229398</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -641,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -655,7 +920,7 @@
         <v>19.136799596163598</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -669,7 +934,7 @@
         <v>184.13427561837401</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -683,7 +948,7 @@
         <v>365.32559313477998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -697,7 +962,7 @@
         <v>257.76375567895002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -711,7 +976,7 @@
         <v>141.90307925290199</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -725,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -739,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -753,7 +1018,7 @@
         <v>93.351842503785903</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -767,7 +1032,7 @@
         <v>100.85310449268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -781,7 +1046,7 @@
         <v>68.293791014639098</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -793,6 +1058,187 @@
       </c>
       <c r="D25">
         <v>39.268046441191302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>19.136799596163598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>283.98636166819011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>477.39277458800552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>335.01029876373036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1">
+        <v>185.43439895273917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB9E329-4425-6542-8F85-F50828976626}">
+  <dimension ref="A3:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B9"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="7" activeRow="3" previousRow="8" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" axis="axisRow" fieldPosition="0">
+          <references count="1">
+            <reference field="2" count="6">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>19.136799596163598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>283.98636166819011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>477.39277458800552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>335.01029876373036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>185.43439895273917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1300.9606335688288</v>
       </c>
     </row>
   </sheetData>
